--- a/data/long_dif/P18_4-Edad-long_dif.xlsx
+++ b/data/long_dif/P18_4-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>42,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41,12%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 27,62</t>
+          <t>11,83; 26,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,3; 46,42</t>
+          <t>28,51; 52,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,63; 31,85</t>
+          <t>12,86; 30,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 16,3</t>
+          <t>7,17; 26,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,33; 53,86</t>
+          <t>4,95; 17,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,76; 40,33</t>
+          <t>33,09; 51,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,97; 19,65</t>
+          <t>21,85; 38,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,79; 46,8</t>
+          <t>14,21; 31,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,2; 32,58</t>
+          <t>9,47; 19,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34,26; 49,28</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,76; 31,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12,25; 25,04</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>47,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>56,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,61%</t>
+          <t>29,87%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,19%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>40,27%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>48,36%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,83; 36,18</t>
+          <t>21,54; 37,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,82; 61,85</t>
+          <t>36,42; 59,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,54; 57,21</t>
+          <t>33,05; 55,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,94; 39,43</t>
+          <t>43,15; 70,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,8; 47,29</t>
+          <t>22,39; 39,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,58; 44,06</t>
+          <t>27,12; 45,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,43; 35,14</t>
+          <t>28,42; 45,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,06; 51,97</t>
+          <t>29,92; 50,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,29; 47,51</t>
+          <t>24,42; 36,07</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35,28; 50,03</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>33,16; 46,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39,99; 57,9</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>52,95%</t>
+          <t>53,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>28,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>59,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>56,28%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>56,18%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34,38%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>33,54%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,26; 61,88</t>
+          <t>44,05; 62,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 23,82</t>
+          <t>6,23; 20,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,5; 43,05</t>
+          <t>25,45; 45,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,51; 68,14</t>
+          <t>17,7; 42,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,94; 27,62</t>
+          <t>49,27; 68,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,09; 42,42</t>
+          <t>14,8; 32,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>49,76; 62,56</t>
+          <t>26,55; 41,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,64; 21,87</t>
+          <t>29,0; 49,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,47; 39,93</t>
+          <t>49,8; 62,91</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11,95; 23,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28,1; 41,4</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25,3; 41,64</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 15,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,27; 55,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,58; 37,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,14; 28,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,69; 45,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,3; 27,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,05; 20,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,44; 48,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,41; 30,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>47,45%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44,53%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>42,74%</t>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>40,76%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20,16%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,33; 54,7</t>
+          <t>5,78; 16,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,29; 55,13</t>
+          <t>32,14; 58,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,77; 47,85</t>
+          <t>19,73; 36,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,42; 43,19</t>
+          <t>10,86; 29,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,67; 53,49</t>
+          <t>12,91; 27,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,56; 54,32</t>
+          <t>29,69; 46,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,42; 46,88</t>
+          <t>15,22; 26,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,82; 51,65</t>
+          <t>13,54; 29,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,42; 48,56</t>
+          <t>10,39; 19,42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33,78; 51,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19,71; 29,68</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 27,18</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>47,07%</t>
+          <t>42,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>42,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>45,79%</t>
+          <t>52,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>43,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>46,45%</t>
+          <t>47,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>49,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>38,91%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>42,76%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42,26%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>50,99%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,25; 58,3</t>
+          <t>32,85; 56,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,29; 22,07</t>
+          <t>29,37; 52,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,56; 46,71</t>
+          <t>27,14; 46,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>36,57; 54,5</t>
+          <t>38,26; 71,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,61; 26,71</t>
+          <t>26,37; 42,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,2; 38,73</t>
+          <t>35,53; 53,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38,9; 52,84</t>
+          <t>40,45; 54,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,17; 21,62</t>
+          <t>40,81; 58,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,77; 41,56</t>
+          <t>32,51; 47,08</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>33,73; 49,38</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>35,5; 47,82</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>41,92; 62,95</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>47,03%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>46,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>46,53%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>33,37%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>28,86%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,41; 38,05</t>
+          <t>36,02; 58,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,74; 38,09</t>
+          <t>9,11; 22,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,53; 33,82</t>
+          <t>24,41; 50,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,64; 23,49</t>
+          <t>16,27; 39,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,63; 45,01</t>
+          <t>37,93; 54,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,2; 34,67</t>
+          <t>12,0; 25,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,91; 28,55</t>
+          <t>24,77; 38,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>29,25; 39,99</t>
+          <t>23,02; 39,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,1; 32,13</t>
+          <t>39,7; 54,23</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11,84; 21,74</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>27,64; 42,77</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20,98; 36,28</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,85; 44,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>32,19; 48,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,92; 54,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34,98; 48,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>32,53; 45,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,46; 48,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,13; 44,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>33,94; 44,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,73; 50,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>42,74%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>41,23%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>18,22%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>34,68%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>27,58%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>29,34%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>33,29; 54,28</t>
+          <t>12,29; 30,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,81; 42,19</t>
+          <t>22,56; 39,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20,48; 38,96</t>
+          <t>20,47; 36,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>34,23; 48,83</t>
+          <t>26,27; 45,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,31; 28,11</t>
+          <t>13,28; 23,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,44; 33,55</t>
+          <t>33,08; 45,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>35,67; 48,27</t>
+          <t>23,72; 34,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>21,14; 32,99</t>
+          <t>20,23; 31,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,97; 33,65</t>
+          <t>14,29; 24,19</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>29,18; 39,83</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>23,57; 32,5</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>24,49; 35,33</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>41,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>43,57%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>38,62%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>38,86%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>39,19%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>45,27%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>41,1%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>12,09; 22,6</t>
+          <t>27,78; 45,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>25,77; 42,08</t>
+          <t>30,63; 48,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,55; 38,56</t>
+          <t>38,41; 54,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,46; 21,12</t>
+          <t>34,71; 51,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>30,97; 43,85</t>
+          <t>35,39; 48,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>23,46; 33,85</t>
+          <t>31,88; 44,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,48; 19,88</t>
+          <t>38,45; 49,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>30,19; 39,88</t>
+          <t>32,25; 45,58</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>25,36; 33,4</t>
+          <t>33,95; 44,12</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>33,55; 44,27</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>40,46; 49,84</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>35,93; 46,19</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>45,33%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>40,57%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>42,93%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>27,15%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>29,56%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>31,16; 44,29</t>
+          <t>36,37; 54,3</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>37,74; 52,18</t>
+          <t>22,51; 44,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>36,61; 50,97</t>
+          <t>19,36; 36,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>33,45; 46,36</t>
+          <t>16,53; 29,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>32,85; 45,56</t>
+          <t>33,73; 46,82</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>33,83; 44,72</t>
+          <t>17,0; 27,08</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>34,78; 43,93</t>
+          <t>23,62; 34,28</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>37,09; 47,05</t>
+          <t>29,6; 42,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>36,9; 45,72</t>
+          <t>37,78; 48,64</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>21,22; 33,52</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>23,02; 32,01</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>25,4; 35,13</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>38,83; 52,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>16,52; 28,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,95; 34,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>38,13; 51,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>18,31; 29,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>27,9; 38,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>39,66; 49,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18,95; 27,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>25,18; 33,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>42,32%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>28,24%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>34,59%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>28,88%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>26,51%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,17; 17,11</t>
+          <t>12,49; 22,79</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>28,47; 44,54</t>
+          <t>25,43; 41,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>20,4; 32,32</t>
+          <t>23,66; 35,67</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,47; 27,91</t>
+          <t>18,41; 39,23</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>34,12; 50,28</t>
+          <t>11,83; 21,53</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>25,2; 38,68</t>
+          <t>30,92; 43,83</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>12,27; 20,92</t>
+          <t>23,4; 33,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>33,14; 44,37</t>
+          <t>21,39; 32,92</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>24,52; 33,29</t>
+          <t>13,35; 19,93</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>29,75; 39,32</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>25,13; 33,19</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>21,33; 33,96</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>44,11%</t>
+          <t>46,05%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>44,47%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>44,21%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>39,14%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>38,96%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>42,99%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>41,73%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>45,7%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>28,56; 44,85</t>
+          <t>31,45; 44,46</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>35,99; 54,21</t>
+          <t>38,68; 53,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>41,97; 55,76</t>
+          <t>37,79; 51,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>28,17; 44,0</t>
+          <t>33,54; 52,18</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>27,98; 44,43</t>
+          <t>34,38; 46,57</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>36,12; 50,09</t>
+          <t>33,46; 46,44</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>30,97; 42,37</t>
+          <t>33,41; 44,45</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>33,9; 46,04</t>
+          <t>41,07; 53,9</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>41,45; 51,05</t>
+          <t>34,62; 43,43</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>38,26; 48,28</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>37,65; 46,12</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>39,85; 51,71</t>
         </is>
       </c>
     </row>
@@ -2127,52 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>51,81%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>44,54%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>29,38%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>27,79%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>43,5; 61,33</t>
+          <t>38,63; 52,08</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>13,96; 27,09</t>
+          <t>16,72; 28,56</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>19,75; 31,94</t>
+          <t>19,93; 33,88</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>35,16; 51,19</t>
+          <t>22,13; 37,01</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>16,16; 30,7</t>
+          <t>37,6; 50,34</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>20,26; 31,84</t>
+          <t>17,64; 29,05</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>41,25; 53,6</t>
+          <t>27,67; 38,03</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>16,58; 26,61</t>
+          <t>20,81; 32,08</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>21,15; 29,49</t>
+          <t>39,9; 49,11</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>18,68; 26,42</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>25,6; 34,47</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>23,07; 32,71</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>10,71; 23,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>23,06; 44,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>21,02; 38,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>6,28; 17,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>19,1; 34,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>24,57; 40,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>9,48; 17,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>23,41; 35,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>25,11; 36,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>42,22%</t>
+          <t>42,81%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>16,61%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>39,65%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>28,36%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>21,2%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>24,89; 49,49</t>
+          <t>6,24; 16,24</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>31,45; 59,14</t>
+          <t>29,43; 44,8</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>33,55; 52,54</t>
+          <t>20,2; 32,03</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>30,68; 48,86</t>
+          <t>17,35; 35,15</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>30,83; 52,62</t>
+          <t>16,17; 29,04</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>34,09; 52,71</t>
+          <t>34,17; 50,88</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>31,09; 45,59</t>
+          <t>24,49; 38,21</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>35,63; 52,01</t>
+          <t>11,78; 25,36</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>36,33; 50,1</t>
+          <t>12,76; 20,9</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>33,85; 45,04</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>24,17; 33,05</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>16,21; 27,58</t>
         </is>
       </c>
     </row>
@@ -2449,52 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>50,44%</t>
+          <t>43,21%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>49,47%</t>
+          <t>43,34%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>41,88%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>36,63%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>39,71%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>46,26%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>42,55%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>37,61; 59,06</t>
+          <t>29,22; 45,64</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>14,74; 31,84</t>
+          <t>35,84; 53,03</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>20,46; 36,66</t>
+          <t>42,54; 56,98</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>41,12; 58,64</t>
+          <t>33,87; 52,72</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>24,34; 43,14</t>
+          <t>28,63; 43,36</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>19,63; 33,72</t>
+          <t>27,61; 43,39</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>42,06; 56,3</t>
+          <t>36,02; 50,77</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>21,89; 35,07</t>
+          <t>33,28; 50,9</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>21,47; 32,73</t>
+          <t>31,4; 42,35</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>34,39; 45,91</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>40,49; 51,22</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>36,44; 49,44</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>51,97%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>46,76%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>25,38%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>36,25%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>13,59; 20,48</t>
+          <t>44,1; 60,99</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>30,6; 39,28</t>
+          <t>13,61; 25,84</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>24,2; 30,36</t>
+          <t>19,96; 31,32</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>13,52; 18,17</t>
+          <t>23,37; 40,41</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>33,78; 40,17</t>
+          <t>34,25; 49,06</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>26,05; 31,59</t>
+          <t>16,01; 30,14</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>13,96; 18,05</t>
+          <t>19,11; 32,08</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>33,23; 38,53</t>
+          <t>31,33; 50,45</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>25,76; 30,08</t>
+          <t>41,11; 52,92</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>16,4; 25,69</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>21,37; 30,05</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>30,24; 43,18</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>32,38; 40,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>40,46; 48,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>40,68; 47,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>34,23; 40,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>35,98; 42,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>38,67; 44,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>34,11; 39,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>39,39; 44,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>40,65; 45,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>32,73%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>13,71%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>31,32%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>30,21%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>43,48; 51,88</t>
+          <t>11,19; 24,99</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>17,64; 24,49</t>
+          <t>25,37; 44,24</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>25,36; 32,8</t>
+          <t>21,79; 38,89</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>43,89; 50,52</t>
+          <t>19,68; 41,59</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>21,02; 26,95</t>
+          <t>6,4; 16,34</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>26,81; 32,05</t>
+          <t>20,69; 35,69</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>44,68; 50,1</t>
+          <t>25,63; 41,68</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>19,87; 24,53</t>
+          <t>21,97; 42,23</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>26,87; 31,4</t>
+          <t>10,26; 18,44</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>25,07; 37,5</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>25,59; 37,18</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>23,1; 38,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>34,59%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>42,63%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>43,2%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>41,42%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>40,79%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>39,06%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>40,51%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>30,92%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>38,12%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>40,61%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>41,69%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>35,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>25,38; 48,24</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>32,15; 54,71</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>34,69; 52,13</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>30,15; 53,4</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>32,93; 49,91</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>30,81; 48,73</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>32,01; 49,3</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>22,1; 40,58</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>31,87; 45,76</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>33,46; 48,09</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>35,84; 48,44</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>28,35; 43,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>47,53%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>23,09%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>27,29%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>29,64%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>48,65%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>33,03%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>37,93%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>48,17%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>28,72%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>34,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>36,89; 56,89</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 32,39</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>19,2; 34,94</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>19,22; 39,85</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>39,69; 56,61</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>24,75; 43,84</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>20,23; 35,12</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>29,4; 49,81</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>41,7; 54,7</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>22,81; 35,4</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>21,53; 32,5</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>27,71; 42,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>15,52%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>35,65%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>26,82%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>25,05%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>37,41%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>28,54%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>36,54%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>12,78; 18,27</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>31,8; 40,32</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>23,84; 30,0</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 29,43</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>13,83; 18,42</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>34,38; 40,66</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>25,92; 31,24</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>21,34; 28,09</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 17,49</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>34,07; 39,25</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>25,7; 29,74</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>22,14; 27,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>36,4%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>43,59%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>44,26%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>46,86%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>37,94%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>38,93%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>41,73%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>40,91%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>37,19%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>41,22%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>42,97%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>43,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>32,81; 40,61</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>39,82; 47,72</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>40,17; 47,73</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>42,45; 52,91</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>34,98; 41,03</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>35,62; 42,07</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>38,89; 44,45</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>37,2; 44,59</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>34,89; 39,64</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>38,61; 43,81</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>40,68; 45,33</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>41,1; 47,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>48,08%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>28,92%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>28,09%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>46,15%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>23,66%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>34,66%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>47,09%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>22,24%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>29,33%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>31,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>44,33; 51,9</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>17,61; 24,58</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>25,49; 33,17</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>24,43; 31,8</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>42,69; 49,09</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>21,05; 26,74</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>27,26; 32,44</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>31,29; 38,21</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>44,57; 49,52</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>20,15; 24,59</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>27,17; 31,74</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>28,79; 34,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
